--- a/biology/Botanique/Dattier_de_Beyrouth/Dattier_de_Beyrouth.xlsx
+++ b/biology/Botanique/Dattier_de_Beyrouth/Dattier_de_Beyrouth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le dattier de Beyrouth est un cépage de raisin de table blanc. Il est très cultivé dans le monde pour la production de raisins frais et il est très recherché sur le marché européen.
@@ -513,7 +525,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le dattier de Beyrouth est un cépage oriental. En 1883, Uffren, un négociant de soie apporte le cépage de la région de Beyrouth en France où il a été multiplié dans un premier temps dans la région de Cavaillon (Vaucluse). Comme on ignorait son nom, on l'appela dattier en raison de la forme des baies.
 Aujourd'hui, nous savons qu'il s'agit du rhazaki.
@@ -548,7 +562,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau est épanoui, glabre
 Jeunes feuilles sont glabres, jaune bronzé
@@ -580,7 +596,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de troisième époque : 25 jours après le chasselas.
 </t>
@@ -611,7 +629,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont grandes et les baies sont de taille très grosse. La grappe est conique et assez lâche. Le dattier de Beyrouth est très vigoureux. Il doit être taillé long et la conduite en pergola lui convient parfaitement. Le cépage est sensible au mildiou, à l'oïdium, à la pourriture grise et aux gelées d'hiver.
 Pour produire des raisins de table de qualité, des techniques culturales sont indispensables, dont l'incision annulaire, l'irrigation et l’éclaircissage.
@@ -643,7 +663,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le dattier de Beyrouth est aussi connu sous les noms de Actoni Maceron, Afus Ali, Afouz Ali, Afuz-Ali Alb, Aleppo, Altin Tas Razaki, Anabolitiko, Anatolikon, Arkanoiotiko, Axiangelas, Aydin Razakisi, Bayadi, Bayrout Hurmasi, Beiruty Datolya, Beyrut Hurmasi, Boldun, Bolgar, Bolgarszölö, Caraburnu, Celibar Drenak, Chondorogo, Datolya-Szölö, Datteltraube, Dattero di Negroponte, Dattier de Beyrouth, Dimiski, Doreee, Galetta, Ginevra, Hafis Ali, Hafuz Ali, Insolia Parchitana, Inzolia Imperiale, Iurum Iuzum, Izmir Razaki, Karaboumou, Karaburnu, Kararubun, Kerino, Marsigliana Bianca, Medina, Menavacca Bianca, Parchitana, Pepita de Oro, Pergolona, Provolone, Raisin de Constantinople, Raisin d´Or, Razachie Alba, Razachie de Dealul Mare, Real, Regina Bianca, Regina Bianca di Firenze, Regina della Malvasie, Rhajaki oder Rhajaki Aspro, Rhazaki, Rhazaki Arkanon, Rosaki, Rosaki Sari, Rosani, Sarga Rumonya, Smyrneiko, Stamboleze, Sultani Razaki, Teta di Vaca, Tzarigradsco Grozde, Uva del Vaticano, Uva Marchesa, Uva Real, Waltham Cross, Zeine.
 </t>
